--- a/Labs/L1/CheckLists/Lab01_ReviewReport.xlsx
+++ b/Labs/L1/CheckLists/Lab01_ReviewReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -73,19 +73,155 @@
   </si>
   <si>
     <t>Casian Nicoale Marc</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Lipsesc informatii cu privire la un indentificator unic (Improvement: folosire CNP)</t>
+  </si>
+  <si>
+    <t>Ce reprezinta salariul de incadrare?</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>Tipul aplicatiei</t>
+  </si>
+  <si>
+    <t>Constrangeri privind datele de intrare</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>Nu se precizeaza starea initiala a aplicatiei</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>La adaugare nu se specifica formatul datelor acceptate</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>1/-</t>
+  </si>
+  <si>
+    <t>Requirements needs to be updated</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nu se respecta arhitectura stratificata </t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>Pachetul enumerationa r trebui sa fie inclus in pachetul model</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>Arhitectura stratificata propusa in requirements nu este respectata 100% (StartApp initializeaza un obiect de tip controller, controller initializeaza un obiect de tip repository)</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>EmployeeImpl ar trebui sa se numeasca EmployeeRepositoryImplementation</t>
+  </si>
+  <si>
+    <t>EmployeeMock ar trebui sa se numeasca EmployeeRepositoryMock</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>StartApp create EmployeeController</t>
+  </si>
+  <si>
+    <t>EmployeeController create EmployeeRepository</t>
+  </si>
+  <si>
+    <t>EmployeeRepository handles employes</t>
+  </si>
+  <si>
+    <t>1.5h</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>la adaugarea unui nou angajat, nu se verifica daca angajatul este deja in sistem</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>La adaugarea unui angajat nu se inchide fisierul in cazul in care apare vreo exceptie</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Salariul ar trebui sa fie de tipul float</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>Se incearca apelul metodei getEmployeeFromString din cadrul unui context static</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>In cadrul metodei getEmployeeList nu se incrementeaza counter-ul</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>Valudarea CNP-ului folosind criterile: https://ro.wikipedia.org/wiki/Cod_numeric_personal</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>Se afiseaza doar traceback in cazul unei exceptii la adaugarea unui angajat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,66 +363,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,8 +731,8 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,63 +809,105 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
@@ -818,7 +998,9 @@
         <v>8</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -840,8 +1022,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,72 +1100,120 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
@@ -992,7 +1222,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
@@ -1074,7 +1304,9 @@
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1096,8 +1328,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,85 +1403,127 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
@@ -1367,7 +1641,9 @@
         <v>8</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
